--- a/inputs/bom_fixed.xlsx
+++ b/inputs/bom_fixed.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>F8</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
